--- a/XlsxToLua/bin/Debug/TestExcel/HeroEquipment.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/HeroEquipment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,25 +37,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>英雄品阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备槽位序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴等级限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckHeroEquipmentTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableExportConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-notExportOriginalTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroEquipmentDict:heroId-heroQuality($heroQuality)-seq($heroEquipmentSeq){propId,equipRank}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ref:Hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英雄品阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$heroQuality</t>
-  </si>
-  <si>
-    <t>装备槽位序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$heroEquipmentSeq</t>
-  </si>
-  <si>
-    <t>装备ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,51 +109,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穿戴等级限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$heroRank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>heroId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckHeroEquipmentTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableExportConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipRank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-notExportOriginalTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroEquipmentDict:heroId-heroQuality-seq{propId,equipRank}</t>
+    <t>exportDatabaseTableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroId(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroQuality(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipRank(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propId(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_equipment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +274,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,21 +660,21 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -640,36 +686,36 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -694,64 +740,64 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>200001</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200002</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -760,10 +806,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -771,7 +817,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -780,58 +826,58 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>200003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
         <v>200004</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>200005</v>
       </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>200006</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -840,10 +886,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="F11" s="2">
         <v>5</v>
@@ -851,7 +897,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -860,58 +906,58 @@
         <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="F12" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>200008</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
         <v>21</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>200001</v>
       </c>
-      <c r="F13" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>200002</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -920,10 +966,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -931,7 +977,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -940,58 +986,58 @@
         <v>21</v>
       </c>
       <c r="D16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="F16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>200004</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
         <v>30</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>200005</v>
       </c>
-      <c r="F17" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>200006</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1000,10 +1046,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="F19" s="2">
         <v>20</v>
@@ -1011,7 +1057,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1020,58 +1066,58 @@
         <v>30</v>
       </c>
       <c r="D20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="F20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>200008</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
         <v>31</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>200001</v>
       </c>
-      <c r="F21" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>200002</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1080,10 +1126,10 @@
         <v>31</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="F23" s="2">
         <v>25</v>
@@ -1091,7 +1137,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1100,58 +1146,58 @@
         <v>31</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="F24" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>200004</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
         <v>32</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
         <v>200005</v>
       </c>
-      <c r="F25" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>200006</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1160,10 +1206,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="F27" s="2">
         <v>30</v>
@@ -1171,7 +1217,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1180,58 +1226,58 @@
         <v>32</v>
       </c>
       <c r="D28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="F28" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>200008</v>
+      </c>
+      <c r="F29" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
         <v>40</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
         <v>200001</v>
       </c>
-      <c r="F29" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2">
-        <v>200002</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -1240,10 +1286,10 @@
         <v>40</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="F31" s="2">
         <v>40</v>
@@ -1251,7 +1297,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -1260,58 +1306,58 @@
         <v>40</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="F32" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>200004</v>
+      </c>
+      <c r="F33" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
         <v>41</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
         <v>200005</v>
       </c>
-      <c r="F33" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>41</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>200006</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -1320,10 +1366,10 @@
         <v>41</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="F35" s="2">
         <v>45</v>
@@ -1331,7 +1377,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -1340,58 +1386,58 @@
         <v>41</v>
       </c>
       <c r="D36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="F36" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>200008</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
         <v>42</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
         <v>200001</v>
       </c>
-      <c r="F37" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>42</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2">
-        <v>200002</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -1400,10 +1446,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="F39" s="2">
         <v>50</v>
@@ -1411,7 +1457,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -1420,58 +1466,58 @@
         <v>42</v>
       </c>
       <c r="D40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="F40" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>200004</v>
+      </c>
+      <c r="F41" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
         <v>43</v>
       </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
         <v>200005</v>
       </c>
-      <c r="F41" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>43</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <v>200006</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -1480,10 +1526,10 @@
         <v>43</v>
       </c>
       <c r="D43" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="F43" s="2">
         <v>55</v>
@@ -1491,7 +1537,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -1500,12 +1546,32 @@
         <v>43</v>
       </c>
       <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>200007</v>
+      </c>
+      <c r="F44" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2">
         <v>4</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="2">
         <v>200008</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F45" s="2">
         <v>55</v>
       </c>
     </row>
@@ -1521,7 +1587,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1531,31 +1597,39 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="39.75" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="6"/>
+    <col min="2" max="2" width="42.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="10" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
